--- a/content-audit-template.xlsx
+++ b/content-audit-template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aban/Documents/半撇私塾课程/MKG201-Content-Marketing/03_ExerciseFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yezi/Documents/半撇私塾/对外文件下载/MKG201-Exercise-Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="1280" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="内容盘点表" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">内容盘点表!$A$1:$K$99</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="231">
   <si>
     <t>知乎问题</t>
   </si>
@@ -722,6 +719,12 @@
       <t>she ji</t>
     </rPh>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>泽宇</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1095,10 @@
   <dimension ref="A1:K939"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1175,7 +1178,7 @@
       </c>
       <c r="K2" s="8">
         <f ca="1">INT((1500-800+1)*RAND()+800)</f>
-        <v>1170</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1211,7 +1214,7 @@
       </c>
       <c r="K3" s="8">
         <f t="shared" ref="K3:K66" ca="1" si="0">INT((1500-800+1)*RAND()+800)</f>
-        <v>1064</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1247,7 +1250,7 @@
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1161</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1283,7 +1286,7 @@
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1426</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1319,7 +1322,7 @@
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1016</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1355,7 +1358,7 @@
       </c>
       <c r="K7" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1141</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1391,7 +1394,7 @@
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1371</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1427,7 +1430,7 @@
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1250</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1463,7 +1466,7 @@
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1339</v>
+        <v>975</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1499,7 +1502,7 @@
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1138</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1535,7 +1538,7 @@
       </c>
       <c r="K12" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1220</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1571,7 +1574,7 @@
       </c>
       <c r="K13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1080</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1607,7 +1610,7 @@
       </c>
       <c r="K14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1135</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1643,7 +1646,7 @@
       </c>
       <c r="K15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1268</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1679,7 +1682,7 @@
       </c>
       <c r="K16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1181</v>
+        <v>917</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1715,7 +1718,7 @@
       </c>
       <c r="K17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>931</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1751,7 +1754,7 @@
       </c>
       <c r="K18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1228</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1787,7 +1790,7 @@
       </c>
       <c r="K19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1459</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1823,7 +1826,7 @@
       </c>
       <c r="K20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1134</v>
+        <v>873</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1859,7 +1862,7 @@
       </c>
       <c r="K21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>812</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1895,7 +1898,7 @@
       </c>
       <c r="K22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>925</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1931,7 +1934,7 @@
       </c>
       <c r="K23" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1048</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1967,7 +1970,7 @@
       </c>
       <c r="K24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>939</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2003,7 +2006,7 @@
       </c>
       <c r="K25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1060</v>
+        <v>974</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2039,7 +2042,7 @@
       </c>
       <c r="K26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1312</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2075,7 +2078,7 @@
       </c>
       <c r="K27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1117</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2111,7 +2114,7 @@
       </c>
       <c r="K28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>804</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2147,7 +2150,7 @@
       </c>
       <c r="K29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1031</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2183,7 +2186,7 @@
       </c>
       <c r="K30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1058</v>
+        <v>869</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2219,7 +2222,7 @@
       </c>
       <c r="K31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1001</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2255,7 +2258,7 @@
       </c>
       <c r="K32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>866</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2291,7 +2294,7 @@
       </c>
       <c r="K33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1458</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2327,7 +2330,7 @@
       </c>
       <c r="K34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>913</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2363,7 +2366,7 @@
       </c>
       <c r="K35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1243</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2399,7 +2402,7 @@
       </c>
       <c r="K36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>962</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2435,7 +2438,7 @@
       </c>
       <c r="K37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>847</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2471,7 +2474,7 @@
       </c>
       <c r="K38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>922</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2507,7 +2510,7 @@
       </c>
       <c r="K39" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1211</v>
+        <v>986</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2543,7 +2546,7 @@
       </c>
       <c r="K40" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1078</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2579,7 +2582,7 @@
       </c>
       <c r="K41" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1357</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2615,7 +2618,7 @@
       </c>
       <c r="K42" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1483</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2651,7 +2654,7 @@
       </c>
       <c r="K43" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1221</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2687,7 +2690,7 @@
       </c>
       <c r="K44" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1326</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2723,7 +2726,7 @@
       </c>
       <c r="K45" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1190</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2759,7 +2762,7 @@
       </c>
       <c r="K46" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1402</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2795,7 +2798,7 @@
       </c>
       <c r="K47" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1250</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2831,7 +2834,7 @@
       </c>
       <c r="K48" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>862</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2867,7 +2870,7 @@
       </c>
       <c r="K49" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>964</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2903,7 +2906,7 @@
       </c>
       <c r="K50" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1500</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2939,7 +2942,7 @@
       </c>
       <c r="K51" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1141</v>
+        <v>809</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2975,7 +2978,7 @@
       </c>
       <c r="K52" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>925</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3011,7 +3014,7 @@
       </c>
       <c r="K53" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1130</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3047,7 +3050,7 @@
       </c>
       <c r="K54" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>802</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3083,7 +3086,7 @@
       </c>
       <c r="K55" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1053</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3119,7 +3122,7 @@
       </c>
       <c r="K56" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1207</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3155,7 +3158,7 @@
       </c>
       <c r="K57" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>968</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3191,7 +3194,7 @@
       </c>
       <c r="K58" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>833</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3227,7 +3230,7 @@
       </c>
       <c r="K59" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1312</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3263,7 +3266,7 @@
       </c>
       <c r="K60" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1370</v>
+        <v>979</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3299,7 +3302,7 @@
       </c>
       <c r="K61" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1167</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3335,7 +3338,7 @@
       </c>
       <c r="K62" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1392</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3371,7 +3374,7 @@
       </c>
       <c r="K63" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1276</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3407,7 +3410,7 @@
       </c>
       <c r="K64" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1084</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3443,7 +3446,7 @@
       </c>
       <c r="K65" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1254</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3479,7 +3482,7 @@
       </c>
       <c r="K66" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>1173</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3515,7 +3518,7 @@
       </c>
       <c r="K67" s="8">
         <f t="shared" ref="K67:K99" ca="1" si="1">INT((1500-800+1)*RAND()+800)</f>
-        <v>1208</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3551,7 +3554,7 @@
       </c>
       <c r="K68" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1229</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3587,7 +3590,7 @@
       </c>
       <c r="K69" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1159</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3623,7 +3626,7 @@
       </c>
       <c r="K70" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>990</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3659,7 +3662,7 @@
       </c>
       <c r="K71" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1281</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3695,7 +3698,7 @@
       </c>
       <c r="K72" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1213</v>
+        <v>836</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3731,7 +3734,7 @@
       </c>
       <c r="K73" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1015</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3767,7 +3770,7 @@
       </c>
       <c r="K74" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1171</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3803,7 +3806,7 @@
       </c>
       <c r="K75" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1062</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3814,7 +3817,7 @@
         <v>164</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D76" s="10">
         <v>42877</v>
@@ -3839,7 +3842,7 @@
       </c>
       <c r="K76" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1379</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3875,7 +3878,7 @@
       </c>
       <c r="K77" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1324</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3911,7 +3914,7 @@
       </c>
       <c r="K78" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>856</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3922,7 +3925,7 @@
         <v>171</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D79" s="10">
         <v>42890</v>
@@ -3947,7 +3950,7 @@
       </c>
       <c r="K79" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>959</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -3983,7 +3986,7 @@
       </c>
       <c r="K80" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1386</v>
+        <v>811</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4019,7 +4022,7 @@
       </c>
       <c r="K81" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1407</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4030,7 +4033,7 @@
         <v>177</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D82" s="13">
         <v>42895</v>
@@ -4055,7 +4058,7 @@
       </c>
       <c r="K82" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1378</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4066,7 +4069,7 @@
         <v>180</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D83" s="10">
         <v>42898</v>
@@ -4091,7 +4094,7 @@
       </c>
       <c r="K83" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1358</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4127,7 +4130,7 @@
       </c>
       <c r="K84" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>969</v>
+        <v>987</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4138,7 +4141,7 @@
         <v>186</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D85" s="10">
         <v>42916</v>
@@ -4163,7 +4166,7 @@
       </c>
       <c r="K85" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1468</v>
+        <v>996</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4174,7 +4177,7 @@
         <v>189</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="D86" s="10">
         <v>42916</v>
@@ -4199,7 +4202,7 @@
       </c>
       <c r="K86" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1192</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4210,7 +4213,7 @@
         <v>192</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="D87" s="10">
         <v>42922</v>
@@ -4235,7 +4238,7 @@
       </c>
       <c r="K87" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1269</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4246,7 +4249,7 @@
         <v>195</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="D88" s="10">
         <v>42922</v>
@@ -4271,7 +4274,7 @@
       </c>
       <c r="K88" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1499</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4282,7 +4285,7 @@
         <v>197</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D89" s="10">
         <v>42928</v>
@@ -4307,7 +4310,7 @@
       </c>
       <c r="K89" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1020</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4318,7 +4321,7 @@
         <v>200</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D90" s="10">
         <v>42930</v>
@@ -4343,7 +4346,7 @@
       </c>
       <c r="K90" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4354,7 +4357,7 @@
         <v>202</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="D91" s="10">
         <v>42933</v>
@@ -4379,7 +4382,7 @@
       </c>
       <c r="K91" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1104</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4390,7 +4393,7 @@
         <v>205</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D92" s="10">
         <v>42935</v>
@@ -4415,7 +4418,7 @@
       </c>
       <c r="K92" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>804</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4426,7 +4429,7 @@
         <v>208</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="D93" s="10">
         <v>42942</v>
@@ -4451,7 +4454,7 @@
       </c>
       <c r="K93" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1433</v>
+        <v>837</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4462,7 +4465,7 @@
         <v>211</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D94" s="10">
         <v>42942</v>
@@ -4487,7 +4490,7 @@
       </c>
       <c r="K94" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1153</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4498,7 +4501,7 @@
         <v>214</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="D95" s="10">
         <v>42944</v>
@@ -4523,7 +4526,7 @@
       </c>
       <c r="K95" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1146</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4534,7 +4537,7 @@
         <v>217</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D96" s="10">
         <v>42948</v>
@@ -4559,7 +4562,7 @@
       </c>
       <c r="K96" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4570,7 +4573,7 @@
         <v>220</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D97" s="10">
         <v>42949</v>
@@ -4595,7 +4598,7 @@
       </c>
       <c r="K97" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1183</v>
+        <v>938</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4606,7 +4609,7 @@
         <v>223</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
       <c r="D98" s="10">
         <v>42950</v>
@@ -4631,7 +4634,7 @@
       </c>
       <c r="K98" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1406</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="13" x14ac:dyDescent="0.15">
@@ -4642,7 +4645,7 @@
         <v>226</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="D99" s="10">
         <v>42951</v>
@@ -4667,7 +4670,7 @@
       </c>
       <c r="K99" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>865</v>
+        <v>987</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="13" x14ac:dyDescent="0.15">
